--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/Grn Alcohol.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/Grn Alcohol.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="Grn Alcohol" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_lu1">#REF!</definedName>
     <definedName name="_lu2">#REF!</definedName>
@@ -65,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="152">
   <si>
     <t>SaveLabel</t>
   </si>
@@ -511,6 +508,18 @@
   </si>
   <si>
     <t>HOME_DELIVERY_PREMIUM Each Package</t>
+  </si>
+  <si>
+    <t>20 Each Package</t>
+  </si>
+  <si>
+    <t>15 Each Package</t>
+  </si>
+  <si>
+    <t>100 Each Package</t>
+  </si>
+  <si>
+    <t>800</t>
   </si>
 </sst>
 </file>
@@ -902,116 +911,116 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="6" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="14" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1033,45 +1042,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Cover Page"/>
-      <sheetName val="Total Test Cases Count"/>
-      <sheetName val="US Exp Dom"/>
-      <sheetName val="US Exp Dom-Alcohol"/>
-      <sheetName val="US Exp Intl"/>
-      <sheetName val="US Exp Intl-Alcohol"/>
-      <sheetName val="US Grn Dom Intl And Home Del"/>
-      <sheetName val="Grn Alcohol"/>
-      <sheetName val="CA Exp Dom"/>
-      <sheetName val="CA Exp Intl"/>
-      <sheetName val="CA Grn Dom Intl"/>
-      <sheetName val="IMpB Smartpost test cases"/>
-      <sheetName val="ETD"/>
-      <sheetName val="OneRate"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1374,56 +1344,56 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:BQ10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BL1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D3" sqref="D3:D75"/>
-      <selection pane="bottomLeft" activeCell="AE4" sqref="AE4"/>
+      <selection pane="bottomLeft" activeCell="BO6" sqref="BO6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="18" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" style="18" customWidth="1"/>
-    <col min="3" max="3" width="17.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="69.7109375" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" style="54" customWidth="1"/>
-    <col min="6" max="6" width="29" style="54" customWidth="1"/>
-    <col min="7" max="7" width="31.42578125" style="54" customWidth="1"/>
-    <col min="8" max="8" width="19" style="54" customWidth="1"/>
-    <col min="9" max="9" width="18.28515625" style="54" customWidth="1"/>
-    <col min="10" max="11" width="18.5703125" style="54" customWidth="1"/>
-    <col min="12" max="12" width="24" style="54" customWidth="1"/>
-    <col min="13" max="15" width="18.5703125" style="54" customWidth="1"/>
-    <col min="16" max="16" width="33.5703125" style="54" customWidth="1"/>
-    <col min="17" max="17" width="20" style="54" customWidth="1"/>
-    <col min="18" max="19" width="20.28515625" style="54" customWidth="1"/>
-    <col min="20" max="20" width="24" style="54" customWidth="1"/>
-    <col min="21" max="21" width="33.140625" style="54" customWidth="1"/>
-    <col min="22" max="22" width="20" style="54" customWidth="1"/>
-    <col min="23" max="24" width="20.28515625" style="54" customWidth="1"/>
-    <col min="25" max="27" width="57.85546875" style="54" customWidth="1"/>
-    <col min="28" max="28" width="51" style="54" customWidth="1"/>
-    <col min="29" max="29" width="50.7109375" style="54" customWidth="1"/>
-    <col min="30" max="31" width="51.5703125" style="54" customWidth="1"/>
-    <col min="32" max="33" width="40.42578125" style="54" customWidth="1"/>
-    <col min="34" max="34" width="49.140625" style="54" customWidth="1"/>
-    <col min="35" max="35" width="39.85546875" style="54" customWidth="1"/>
-    <col min="36" max="36" width="40.28515625" style="54" customWidth="1"/>
-    <col min="37" max="37" width="26.140625" style="54" customWidth="1"/>
-    <col min="38" max="38" width="19.7109375" style="54" customWidth="1"/>
-    <col min="39" max="39" width="19.5703125" style="54" customWidth="1"/>
-    <col min="40" max="42" width="24.140625" style="54" customWidth="1"/>
-    <col min="43" max="48" width="24.42578125" style="54" customWidth="1"/>
-    <col min="49" max="50" width="21.42578125" style="54" customWidth="1"/>
-    <col min="51" max="56" width="45.28515625" style="54" customWidth="1"/>
-    <col min="57" max="58" width="47.28515625" style="54" customWidth="1"/>
-    <col min="59" max="59" width="28.28515625" style="54" customWidth="1"/>
-    <col min="60" max="61" width="22.5703125" style="54" customWidth="1"/>
-    <col min="62" max="62" width="23.5703125" style="54" customWidth="1"/>
-    <col min="63" max="64" width="36.140625" style="54" customWidth="1"/>
-    <col min="65" max="65" width="51.28515625" style="54" customWidth="1"/>
-    <col min="66" max="67" width="61" style="54" customWidth="1"/>
-    <col min="68" max="68" width="50.7109375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="51" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="51" customWidth="1"/>
+    <col min="6" max="6" width="29" style="51" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="51" customWidth="1"/>
+    <col min="8" max="8" width="19" style="51" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" style="51" customWidth="1"/>
+    <col min="10" max="11" width="18.5703125" style="51" customWidth="1"/>
+    <col min="12" max="12" width="24" style="51" customWidth="1"/>
+    <col min="13" max="15" width="18.5703125" style="51" customWidth="1"/>
+    <col min="16" max="16" width="33.5703125" style="51" customWidth="1"/>
+    <col min="17" max="17" width="20" style="51" customWidth="1"/>
+    <col min="18" max="19" width="20.28515625" style="51" customWidth="1"/>
+    <col min="20" max="20" width="24" style="51" customWidth="1"/>
+    <col min="21" max="21" width="33.140625" style="51" customWidth="1"/>
+    <col min="22" max="22" width="20" style="51" customWidth="1"/>
+    <col min="23" max="24" width="20.28515625" style="51" customWidth="1"/>
+    <col min="25" max="27" width="57.85546875" style="51" customWidth="1"/>
+    <col min="28" max="28" width="51" style="51" customWidth="1"/>
+    <col min="29" max="29" width="50.7109375" style="51" customWidth="1"/>
+    <col min="30" max="31" width="51.5703125" style="51" customWidth="1"/>
+    <col min="32" max="33" width="40.42578125" style="51" customWidth="1"/>
+    <col min="34" max="34" width="49.140625" style="51" customWidth="1"/>
+    <col min="35" max="35" width="39.85546875" style="51" customWidth="1"/>
+    <col min="36" max="36" width="40.28515625" style="51" customWidth="1"/>
+    <col min="37" max="37" width="26.140625" style="51" customWidth="1"/>
+    <col min="38" max="38" width="19.7109375" style="51" customWidth="1"/>
+    <col min="39" max="39" width="19.5703125" style="51" customWidth="1"/>
+    <col min="40" max="42" width="24.140625" style="51" customWidth="1"/>
+    <col min="43" max="48" width="24.42578125" style="51" customWidth="1"/>
+    <col min="49" max="50" width="21.42578125" style="51" customWidth="1"/>
+    <col min="51" max="56" width="45.28515625" style="51" customWidth="1"/>
+    <col min="57" max="58" width="47.28515625" style="51" customWidth="1"/>
+    <col min="59" max="59" width="28.28515625" style="51" customWidth="1"/>
+    <col min="60" max="61" width="22.5703125" style="51" customWidth="1"/>
+    <col min="62" max="62" width="23.5703125" style="51" customWidth="1"/>
+    <col min="63" max="64" width="36.140625" style="51" customWidth="1"/>
+    <col min="65" max="65" width="51.28515625" style="51" customWidth="1"/>
+    <col min="66" max="67" width="61" style="51" customWidth="1"/>
+    <col min="68" max="68" width="50.7109375" style="51" customWidth="1"/>
     <col min="69" max="69" width="18" style="18" bestFit="1" customWidth="1"/>
     <col min="70" max="16384" width="9.140625" style="18"/>
   </cols>
@@ -1835,1435 +1805,1435 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:69" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:69" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="53" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="20">
+      <c r="C3" s="19">
         <v>270</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="23">
+      <c r="F3" s="22">
         <v>605737</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="H3" s="24" t="s">
+      <c r="H3" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="I3" s="24" t="s">
+      <c r="I3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="24" t="s">
+      <c r="K3" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="L3" s="24" t="s">
+      <c r="L3" s="23" t="s">
         <v>73</v>
       </c>
-      <c r="M3" s="24" t="s">
+      <c r="M3" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24" t="s">
+      <c r="N3" s="23"/>
+      <c r="O3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="P3" s="24" t="s">
+      <c r="P3" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="Q3" s="22">
+      <c r="Q3" s="21">
         <v>151</v>
       </c>
-      <c r="R3" s="24" t="s">
+      <c r="R3" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="S3" s="24" t="s">
+      <c r="S3" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T3" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="U3" s="24">
+      <c r="U3" s="23">
         <v>38123</v>
       </c>
-      <c r="V3" s="24" t="s">
+      <c r="V3" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="W3" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="Y3" s="26" t="s">
+      <c r="Y3" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="Z3" s="26" t="s">
+      <c r="Z3" s="25" t="s">
         <v>82</v>
       </c>
-      <c r="AA3" s="26" t="s">
+      <c r="AA3" s="25" t="s">
         <v>75</v>
       </c>
-      <c r="AB3" s="24" t="s">
+      <c r="AB3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24" t="s">
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="AF3" s="24">
+      <c r="AF3" s="23">
         <v>71</v>
       </c>
-      <c r="AG3" s="27" t="s">
+      <c r="AG3" s="26" t="s">
         <v>85</v>
       </c>
-      <c r="AH3" s="24" t="s">
+      <c r="AH3" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="28"/>
-      <c r="AS3" s="28"/>
-      <c r="AT3" s="28"/>
-      <c r="AU3" s="28"/>
-      <c r="AV3" s="28"/>
-      <c r="AW3" s="28"/>
-      <c r="AX3" s="28"/>
-      <c r="AY3" s="24">
-        <v>20</v>
-      </c>
-      <c r="AZ3" s="24">
-        <v>15</v>
-      </c>
-      <c r="BA3" s="24">
-        <v>20</v>
-      </c>
-      <c r="BB3" s="24" t="s">
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
+      <c r="AY3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ3" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB3" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="BC3" s="24" t="s">
+      <c r="BC3" s="23" t="s">
         <v>88</v>
       </c>
-      <c r="BD3" s="24" t="s">
+      <c r="BD3" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="BE3" s="24" t="s">
+      <c r="BE3" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="BF3" s="23">
-        <v>100</v>
-      </c>
-      <c r="BG3" s="24">
+      <c r="BF3" s="22" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG3" s="23">
         <v>2</v>
       </c>
-      <c r="BH3" s="24" t="s">
+      <c r="BH3" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="BI3" s="24" t="s">
+      <c r="BI3" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="BJ3" s="24" t="s">
+      <c r="BJ3" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="BK3" s="24">
+      <c r="BK3" s="23">
         <v>142</v>
       </c>
-      <c r="BL3" s="24" t="s">
+      <c r="BL3" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="BM3" s="24"/>
-      <c r="BN3" s="24" t="s">
+      <c r="BM3" s="23"/>
+      <c r="BN3" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="BO3" s="28"/>
-      <c r="BP3" s="24" t="s">
+      <c r="BO3" s="27"/>
+      <c r="BP3" s="23" t="s">
         <v>95</v>
       </c>
-      <c r="BQ3" s="29" t="s">
+      <c r="BQ3" s="28" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:69" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:69" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="32">
+      <c r="B4" s="54"/>
+      <c r="C4" s="30">
         <v>280</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="E4" s="34" t="s">
+      <c r="E4" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="35">
+      <c r="F4" s="33">
         <v>605746</v>
       </c>
-      <c r="G4" s="36" t="s">
+      <c r="G4" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="36" t="s">
+      <c r="H4" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="36" t="s">
+      <c r="I4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J4" s="36" t="s">
+      <c r="J4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="36" t="s">
+      <c r="K4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="L4" s="36" t="s">
+      <c r="L4" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="M4" s="36" t="s">
+      <c r="M4" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="N4" s="36"/>
-      <c r="O4" s="36" t="s">
+      <c r="N4" s="34"/>
+      <c r="O4" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="P4" s="36" t="s">
+      <c r="P4" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="Q4" s="34">
+      <c r="Q4" s="32">
         <v>162</v>
       </c>
-      <c r="R4" s="36" t="s">
+      <c r="R4" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="S4" s="36" t="s">
+      <c r="S4" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="T4" s="36" t="s">
+      <c r="T4" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="U4" s="36" t="s">
+      <c r="U4" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="V4" s="36" t="s">
+      <c r="V4" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="W4" s="36" t="s">
+      <c r="W4" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="X4" s="36"/>
-      <c r="Y4" s="37">
-        <v>222327008</v>
-      </c>
-      <c r="Z4" s="37" t="s">
+      <c r="X4" s="34"/>
+      <c r="Y4" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="Z4" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AA4" s="37" t="s">
+      <c r="AA4" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AB4" s="36" t="s">
+      <c r="AB4" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AC4" s="36"/>
-      <c r="AD4" s="36" t="s">
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="AE4" s="36" t="s">
+      <c r="AE4" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AF4" s="36">
+      <c r="AF4" s="34">
         <v>69</v>
       </c>
-      <c r="AG4" s="38" t="s">
+      <c r="AG4" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AH4" s="36">
+      <c r="AH4" s="34">
         <v>25</v>
       </c>
-      <c r="AI4" s="36" t="s">
+      <c r="AI4" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="AJ4" s="36" t="s">
+      <c r="AJ4" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="AK4" s="39">
+      <c r="AK4" s="37">
         <v>214877600</v>
       </c>
-      <c r="AL4" s="39" t="s">
+      <c r="AL4" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="AM4" s="39">
+      <c r="AM4" s="37">
         <v>123456789</v>
       </c>
-      <c r="AN4" s="39" t="s">
+      <c r="AN4" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AO4" s="39" t="s">
+      <c r="AO4" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AP4" s="39">
+      <c r="AP4" s="37">
         <v>9012633035</v>
       </c>
-      <c r="AQ4" s="36" t="s">
+      <c r="AQ4" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AR4" s="36" t="s">
+      <c r="AR4" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="AS4" s="36" t="s">
+      <c r="AS4" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="AT4" s="36" t="s">
+      <c r="AT4" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="AU4" s="39" t="s">
+      <c r="AU4" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="AV4" s="40" t="s">
+      <c r="AV4" s="38" t="s">
         <v>80</v>
       </c>
-      <c r="AW4" s="39" t="s">
+      <c r="AW4" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="AX4" s="39"/>
-      <c r="AY4" s="36">
+      <c r="AX4" s="37"/>
+      <c r="AY4" s="34">
         <v>20</v>
       </c>
-      <c r="AZ4" s="36">
+      <c r="AZ4" s="34">
         <v>15</v>
       </c>
-      <c r="BA4" s="36">
+      <c r="BA4" s="34">
         <v>20</v>
       </c>
-      <c r="BB4" s="36" t="s">
+      <c r="BB4" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="BC4" s="36" t="s">
+      <c r="BC4" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="BD4" s="36" t="s">
+      <c r="BD4" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="BE4" s="36" t="s">
+      <c r="BE4" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="BF4" s="35">
-        <v>800</v>
-      </c>
-      <c r="BG4" s="36">
+      <c r="BF4" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="BG4" s="34">
         <v>1</v>
       </c>
-      <c r="BH4" s="36" t="s">
+      <c r="BH4" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="BI4" s="36" t="s">
+      <c r="BI4" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="BJ4" s="36" t="s">
+      <c r="BJ4" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="BK4" s="36">
+      <c r="BK4" s="34">
         <v>69</v>
       </c>
-      <c r="BL4" s="36" t="s">
+      <c r="BL4" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="BM4" s="36"/>
-      <c r="BN4" s="36" t="s">
+      <c r="BM4" s="34"/>
+      <c r="BN4" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="BO4" s="39"/>
-      <c r="BP4" s="36" t="s">
+      <c r="BO4" s="37"/>
+      <c r="BP4" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="BQ4" s="41" t="s">
+      <c r="BQ4" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:69" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:69" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="32">
+      <c r="B5" s="54"/>
+      <c r="C5" s="30">
         <v>281</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="D5" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="35">
+      <c r="F5" s="33">
         <v>605749</v>
       </c>
-      <c r="G5" s="36" t="s">
+      <c r="G5" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="36" t="s">
+      <c r="I5" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J5" s="36" t="s">
+      <c r="J5" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="36" t="s">
+      <c r="L5" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="36" t="s">
+      <c r="M5" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36" t="s">
+      <c r="N5" s="34"/>
+      <c r="O5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="P5" s="36" t="s">
+      <c r="P5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="34">
+      <c r="Q5" s="32">
         <v>165</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="S5" s="36" t="s">
+      <c r="S5" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="T5" s="36" t="s">
+      <c r="T5" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="U5" s="36" t="s">
+      <c r="U5" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="V5" s="36" t="s">
+      <c r="V5" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="36" t="s">
+      <c r="W5" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="37" t="s">
+      <c r="X5" s="40"/>
+      <c r="Y5" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="Z5" s="37" t="s">
+      <c r="Z5" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AA5" s="37" t="s">
+      <c r="AA5" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AB5" s="36" t="s">
+      <c r="AB5" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36" t="s">
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="AE5" s="36" t="s">
+      <c r="AE5" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AF5" s="36">
+      <c r="AF5" s="34">
         <v>50</v>
       </c>
-      <c r="AG5" s="38" t="s">
+      <c r="AG5" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AH5" s="36">
+      <c r="AH5" s="34">
         <v>100</v>
       </c>
-      <c r="AI5" s="36" t="s">
+      <c r="AI5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="AJ5" s="36" t="s">
+      <c r="AJ5" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="AK5" s="39">
+      <c r="AK5" s="37">
         <v>214877600</v>
       </c>
-      <c r="AL5" s="39" t="s">
+      <c r="AL5" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="AM5" s="39">
+      <c r="AM5" s="37">
         <v>123456789</v>
       </c>
-      <c r="AN5" s="39" t="s">
+      <c r="AN5" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AO5" s="39" t="s">
+      <c r="AO5" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AP5" s="39">
+      <c r="AP5" s="37">
         <v>9012633035</v>
       </c>
-      <c r="AQ5" s="39" t="s">
+      <c r="AQ5" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="AR5" s="39" t="s">
+      <c r="AR5" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="AS5" s="39" t="s">
+      <c r="AS5" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="AT5" s="39" t="s">
+      <c r="AT5" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="AU5" s="39" t="s">
+      <c r="AU5" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="AV5" s="39" t="s">
+      <c r="AV5" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="AW5" s="39" t="s">
+      <c r="AW5" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="AX5" s="39" t="s">
+      <c r="AX5" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="AY5" s="36">
+      <c r="AY5" s="34">
         <v>20</v>
       </c>
-      <c r="AZ5" s="36">
+      <c r="AZ5" s="34">
         <v>15</v>
       </c>
-      <c r="BA5" s="36">
+      <c r="BA5" s="34">
         <v>20</v>
       </c>
-      <c r="BB5" s="36" t="s">
+      <c r="BB5" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="BC5" s="36" t="s">
+      <c r="BC5" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="BD5" s="36" t="s">
+      <c r="BD5" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="BE5" s="36" t="s">
+      <c r="BE5" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="BF5" s="35" t="s">
+      <c r="BF5" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="BG5" s="36">
+      <c r="BG5" s="34">
         <v>1</v>
       </c>
-      <c r="BH5" s="36" t="s">
+      <c r="BH5" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="BI5" s="36" t="s">
+      <c r="BI5" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="BJ5" s="36" t="s">
+      <c r="BJ5" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="BK5" s="36">
+      <c r="BK5" s="34">
         <v>50</v>
       </c>
-      <c r="BL5" s="36" t="s">
+      <c r="BL5" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="BM5" s="36"/>
-      <c r="BN5" s="36" t="s">
+      <c r="BM5" s="34"/>
+      <c r="BN5" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="BO5" s="39"/>
-      <c r="BP5" s="36" t="s">
+      <c r="BO5" s="37"/>
+      <c r="BP5" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="BQ5" s="41" t="s">
+      <c r="BQ5" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:69" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:69" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="32">
+      <c r="B6" s="54"/>
+      <c r="C6" s="30">
         <v>277</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>605752</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="G6" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I6" s="36" t="s">
+      <c r="I6" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J6" s="36" t="s">
+      <c r="J6" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="36" t="s">
+      <c r="L6" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="M6" s="36" t="s">
+      <c r="M6" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36" t="s">
+      <c r="N6" s="34"/>
+      <c r="O6" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="P6" s="36" t="s">
+      <c r="P6" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="Q6" s="34">
+      <c r="Q6" s="32">
         <v>168</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="S6" s="36" t="s">
+      <c r="S6" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="T6" s="36" t="s">
+      <c r="T6" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="U6" s="36" t="s">
+      <c r="U6" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="V6" s="36" t="s">
+      <c r="V6" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="W6" s="36" t="s">
+      <c r="W6" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="37">
+      <c r="X6" s="34"/>
+      <c r="Y6" s="35">
         <v>222326680</v>
       </c>
-      <c r="Z6" s="37" t="s">
+      <c r="Z6" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AA6" s="37" t="s">
+      <c r="AA6" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AB6" s="36" t="s">
+      <c r="AB6" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36" t="s">
+      <c r="AC6" s="34"/>
+      <c r="AD6" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="AE6" s="36" t="s">
+      <c r="AE6" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AF6" s="36">
+      <c r="AF6" s="34">
         <v>50</v>
       </c>
-      <c r="AG6" s="38" t="s">
+      <c r="AG6" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AH6" s="36">
+      <c r="AH6" s="34">
         <v>25</v>
       </c>
-      <c r="AI6" s="36" t="s">
+      <c r="AI6" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="AJ6" s="36" t="s">
+      <c r="AJ6" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="AK6" s="39">
+      <c r="AK6" s="37">
         <v>214877600</v>
       </c>
-      <c r="AL6" s="39" t="s">
+      <c r="AL6" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="AM6" s="39">
+      <c r="AM6" s="37">
         <v>123456789</v>
       </c>
-      <c r="AN6" s="39" t="s">
+      <c r="AN6" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="AO6" s="39" t="s">
+      <c r="AO6" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="AP6" s="39">
+      <c r="AP6" s="37">
         <v>9012633035</v>
       </c>
-      <c r="AQ6" s="34" t="s">
+      <c r="AQ6" s="32" t="s">
         <v>105</v>
       </c>
-      <c r="AR6" s="34" t="s">
+      <c r="AR6" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="AS6" s="34" t="s">
+      <c r="AS6" s="32" t="s">
         <v>73</v>
       </c>
-      <c r="AT6" s="34" t="s">
+      <c r="AT6" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="AU6" s="39" t="s">
+      <c r="AU6" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="AV6" s="39"/>
-      <c r="AW6" s="39" t="s">
+      <c r="AV6" s="37"/>
+      <c r="AW6" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="AX6" s="39"/>
-      <c r="AY6" s="36">
+      <c r="AX6" s="37"/>
+      <c r="AY6" s="34">
         <v>20</v>
       </c>
-      <c r="AZ6" s="36">
+      <c r="AZ6" s="34">
         <v>15</v>
       </c>
-      <c r="BA6" s="36">
+      <c r="BA6" s="34">
         <v>20</v>
       </c>
-      <c r="BB6" s="36" t="s">
+      <c r="BB6" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="BC6" s="36" t="s">
+      <c r="BC6" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="BD6" s="36" t="s">
+      <c r="BD6" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="BE6" s="36" t="s">
+      <c r="BE6" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="BF6" s="35" t="s">
+      <c r="BF6" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="BG6" s="36">
+      <c r="BG6" s="34">
         <v>1</v>
       </c>
-      <c r="BH6" s="36" t="s">
+      <c r="BH6" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="BI6" s="36" t="s">
+      <c r="BI6" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="BJ6" s="36" t="s">
+      <c r="BJ6" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="BK6" s="36">
+      <c r="BK6" s="34">
         <v>50</v>
       </c>
-      <c r="BL6" s="36" t="s">
+      <c r="BL6" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="BM6" s="36"/>
-      <c r="BN6" s="36" t="s">
+      <c r="BM6" s="34"/>
+      <c r="BN6" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="BO6" s="39"/>
-      <c r="BP6" s="36" t="s">
+      <c r="BO6" s="37"/>
+      <c r="BP6" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="BQ6" s="41" t="s">
+      <c r="BQ6" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:69" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:69" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="32">
+      <c r="B7" s="54"/>
+      <c r="C7" s="30">
         <v>770</v>
       </c>
-      <c r="D7" s="33" t="s">
+      <c r="D7" s="31" t="s">
         <v>121</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="E7" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>605766</v>
       </c>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H7" s="36" t="s">
+      <c r="H7" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="36" t="s">
+      <c r="I7" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J7" s="36" t="s">
+      <c r="J7" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="36" t="s">
+      <c r="K7" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="L7" s="36" t="s">
+      <c r="L7" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="M7" s="36" t="s">
+      <c r="M7" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36" t="s">
+      <c r="N7" s="34"/>
+      <c r="O7" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="P7" s="36" t="s">
+      <c r="P7" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="Q7" s="34">
+      <c r="Q7" s="32">
         <v>883</v>
       </c>
-      <c r="R7" s="36" t="s">
+      <c r="R7" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="S7" s="36" t="s">
+      <c r="S7" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="T7" s="36" t="s">
+      <c r="T7" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="U7" s="36" t="s">
+      <c r="U7" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="V7" s="36" t="s">
+      <c r="V7" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="36" t="s">
+      <c r="W7" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="X7" s="42" t="s">
+      <c r="X7" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="Y7" s="37" t="s">
+      <c r="Y7" s="35" t="s">
         <v>81</v>
       </c>
-      <c r="Z7" s="37" t="s">
+      <c r="Z7" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AA7" s="37" t="s">
+      <c r="AA7" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AB7" s="36" t="s">
+      <c r="AB7" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36" t="s">
+      <c r="AC7" s="34"/>
+      <c r="AD7" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="AE7" s="36" t="s">
+      <c r="AE7" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AF7" s="36">
+      <c r="AF7" s="34">
         <v>70</v>
       </c>
-      <c r="AG7" s="38" t="s">
+      <c r="AG7" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AH7" s="36" t="s">
+      <c r="AH7" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AI7" s="36"/>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
-      <c r="AN7" s="39"/>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="39"/>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="36">
+      <c r="AI7" s="34"/>
+      <c r="AJ7" s="34"/>
+      <c r="AK7" s="37"/>
+      <c r="AL7" s="37"/>
+      <c r="AM7" s="37"/>
+      <c r="AN7" s="37"/>
+      <c r="AO7" s="37"/>
+      <c r="AP7" s="37"/>
+      <c r="AQ7" s="37"/>
+      <c r="AR7" s="37"/>
+      <c r="AS7" s="37"/>
+      <c r="AT7" s="37"/>
+      <c r="AU7" s="37"/>
+      <c r="AV7" s="37"/>
+      <c r="AW7" s="37"/>
+      <c r="AX7" s="37"/>
+      <c r="AY7" s="34">
         <v>20</v>
       </c>
-      <c r="AZ7" s="36">
+      <c r="AZ7" s="34">
         <v>20</v>
       </c>
-      <c r="BA7" s="36" t="s">
+      <c r="BA7" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="BB7" s="36" t="s">
+      <c r="BB7" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="BC7" s="36" t="s">
+      <c r="BC7" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="BD7" s="36" t="s">
+      <c r="BD7" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="BE7" s="36" t="s">
+      <c r="BE7" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="BF7" s="35" t="s">
+      <c r="BF7" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="BG7" s="36">
+      <c r="BG7" s="34">
         <v>1</v>
       </c>
-      <c r="BH7" s="36" t="s">
+      <c r="BH7" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="BI7" s="36" t="s">
+      <c r="BI7" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="BJ7" s="36" t="s">
+      <c r="BJ7" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="BK7" s="36">
+      <c r="BK7" s="34">
         <v>70</v>
       </c>
-      <c r="BL7" s="36" t="s">
+      <c r="BL7" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="BM7" s="36" t="s">
+      <c r="BM7" s="34" t="s">
         <v>128</v>
       </c>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36" t="s">
+      <c r="BN7" s="34"/>
+      <c r="BO7" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="BP7" s="36" t="s">
+      <c r="BP7" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="BQ7" s="41" t="s">
+      <c r="BQ7" s="39" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:69" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:69" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="32">
+      <c r="B8" s="54"/>
+      <c r="C8" s="30">
         <v>780</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>605772</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="36" t="s">
+      <c r="H8" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I8" s="36" t="s">
+      <c r="I8" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J8" s="36" t="s">
+      <c r="J8" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="36" t="s">
+      <c r="K8" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="L8" s="36" t="s">
+      <c r="L8" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="M8" s="36" t="s">
+      <c r="M8" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36" t="s">
+      <c r="N8" s="34"/>
+      <c r="O8" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="P8" s="36" t="s">
+      <c r="P8" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="Q8" s="34">
+      <c r="Q8" s="32">
         <v>889</v>
       </c>
-      <c r="R8" s="36" t="s">
+      <c r="R8" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="S8" s="36" t="s">
+      <c r="S8" s="34" t="s">
         <v>131</v>
       </c>
-      <c r="T8" s="36" t="s">
+      <c r="T8" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="U8" s="36" t="s">
+      <c r="U8" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="V8" s="36" t="s">
+      <c r="V8" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="W8" s="36" t="s">
+      <c r="W8" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="X8" s="42" t="s">
+      <c r="X8" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="Y8" s="35" t="s">
+      <c r="Y8" s="33" t="s">
         <v>112</v>
       </c>
-      <c r="Z8" s="37" t="s">
+      <c r="Z8" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AA8" s="37" t="s">
+      <c r="AA8" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AB8" s="36" t="s">
+      <c r="AB8" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36" t="s">
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="AE8" s="36" t="s">
+      <c r="AE8" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AF8" s="36">
+      <c r="AF8" s="34">
         <v>60</v>
       </c>
-      <c r="AG8" s="38" t="s">
+      <c r="AG8" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AH8" s="36" t="s">
+      <c r="AH8" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AI8" s="36"/>
-      <c r="AJ8" s="36"/>
-      <c r="AK8" s="39"/>
-      <c r="AL8" s="39"/>
-      <c r="AM8" s="39"/>
-      <c r="AN8" s="39"/>
-      <c r="AO8" s="39"/>
-      <c r="AP8" s="39"/>
-      <c r="AQ8" s="39"/>
-      <c r="AR8" s="39"/>
-      <c r="AS8" s="39"/>
-      <c r="AT8" s="39"/>
-      <c r="AU8" s="39"/>
-      <c r="AV8" s="39"/>
-      <c r="AW8" s="39"/>
-      <c r="AX8" s="39"/>
-      <c r="AY8" s="36">
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="34"/>
+      <c r="AK8" s="37"/>
+      <c r="AL8" s="37"/>
+      <c r="AM8" s="37"/>
+      <c r="AN8" s="37"/>
+      <c r="AO8" s="37"/>
+      <c r="AP8" s="37"/>
+      <c r="AQ8" s="37"/>
+      <c r="AR8" s="37"/>
+      <c r="AS8" s="37"/>
+      <c r="AT8" s="37"/>
+      <c r="AU8" s="37"/>
+      <c r="AV8" s="37"/>
+      <c r="AW8" s="37"/>
+      <c r="AX8" s="37"/>
+      <c r="AY8" s="34">
         <v>20</v>
       </c>
-      <c r="AZ8" s="36">
+      <c r="AZ8" s="34">
         <v>15</v>
       </c>
-      <c r="BA8" s="36">
+      <c r="BA8" s="34">
         <v>20</v>
       </c>
-      <c r="BB8" s="36" t="s">
+      <c r="BB8" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="BC8" s="36" t="s">
+      <c r="BC8" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="BD8" s="36" t="s">
+      <c r="BD8" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="BE8" s="36" t="s">
+      <c r="BE8" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="BF8" s="35" t="s">
+      <c r="BF8" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="BG8" s="36">
+      <c r="BG8" s="34">
         <v>1</v>
       </c>
-      <c r="BH8" s="36" t="s">
+      <c r="BH8" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="BI8" s="36" t="s">
+      <c r="BI8" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="BJ8" s="36" t="s">
+      <c r="BJ8" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="BK8" s="36">
+      <c r="BK8" s="34">
         <v>60</v>
       </c>
-      <c r="BL8" s="36" t="s">
+      <c r="BL8" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="BM8" s="36" t="s">
+      <c r="BM8" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="BN8" s="36" t="s">
+      <c r="BN8" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="BO8" s="36" t="s">
+      <c r="BO8" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="BP8" s="36" t="s">
+      <c r="BP8" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="BQ8" s="41" t="s">
+      <c r="BQ8" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:69" s="30" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:69" s="29" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="32">
+      <c r="B9" s="54"/>
+      <c r="C9" s="30">
         <v>777</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="E9" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>605776</v>
       </c>
-      <c r="G9" s="36" t="s">
+      <c r="G9" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="36" t="s">
+      <c r="H9" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="I9" s="36" t="s">
+      <c r="I9" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="J9" s="36" t="s">
+      <c r="J9" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="36" t="s">
+      <c r="K9" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="L9" s="36" t="s">
+      <c r="L9" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="M9" s="36" t="s">
+      <c r="M9" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36" t="s">
+      <c r="N9" s="34"/>
+      <c r="O9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="P9" s="36" t="s">
+      <c r="P9" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="32">
         <v>893</v>
       </c>
-      <c r="R9" s="36" t="s">
+      <c r="R9" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="S9" s="36" t="s">
+      <c r="S9" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="T9" s="36" t="s">
+      <c r="T9" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="U9" s="36" t="s">
+      <c r="U9" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="V9" s="36" t="s">
+      <c r="V9" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="W9" s="36" t="s">
+      <c r="W9" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="X9" s="42" t="s">
+      <c r="X9" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="Y9" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z9" s="37" t="s">
+      <c r="Y9" s="33">
+        <v>222327008</v>
+      </c>
+      <c r="Z9" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="AA9" s="37" t="s">
+      <c r="AA9" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="AB9" s="35" t="s">
+      <c r="AB9" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36" t="s">
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="AE9" s="36" t="s">
+      <c r="AE9" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="AF9" s="36">
+      <c r="AF9" s="34">
         <v>20</v>
       </c>
-      <c r="AG9" s="38" t="s">
+      <c r="AG9" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="36" t="s">
+      <c r="AH9" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AI9" s="36"/>
-      <c r="AJ9" s="36"/>
-      <c r="AK9" s="39"/>
-      <c r="AL9" s="39"/>
-      <c r="AM9" s="39"/>
-      <c r="AN9" s="39"/>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39"/>
-      <c r="AQ9" s="39"/>
-      <c r="AR9" s="39"/>
-      <c r="AS9" s="39"/>
-      <c r="AT9" s="39"/>
-      <c r="AU9" s="39"/>
-      <c r="AV9" s="39"/>
-      <c r="AW9" s="39"/>
-      <c r="AX9" s="39"/>
-      <c r="AY9" s="36">
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="37"/>
+      <c r="AL9" s="37"/>
+      <c r="AM9" s="37"/>
+      <c r="AN9" s="37"/>
+      <c r="AO9" s="37"/>
+      <c r="AP9" s="37"/>
+      <c r="AQ9" s="37"/>
+      <c r="AR9" s="37"/>
+      <c r="AS9" s="37"/>
+      <c r="AT9" s="37"/>
+      <c r="AU9" s="37"/>
+      <c r="AV9" s="37"/>
+      <c r="AW9" s="37"/>
+      <c r="AX9" s="37"/>
+      <c r="AY9" s="34">
         <v>20</v>
       </c>
-      <c r="AZ9" s="36">
+      <c r="AZ9" s="34">
         <v>15</v>
       </c>
-      <c r="BA9" s="36">
+      <c r="BA9" s="34">
         <v>20</v>
       </c>
-      <c r="BB9" s="36" t="s">
+      <c r="BB9" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="BC9" s="36" t="s">
+      <c r="BC9" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="BD9" s="36" t="s">
+      <c r="BD9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="BE9" s="36" t="s">
+      <c r="BE9" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="BF9" s="35" t="s">
+      <c r="BF9" s="33" t="s">
         <v>115</v>
       </c>
-      <c r="BG9" s="36">
+      <c r="BG9" s="34">
         <v>1</v>
       </c>
-      <c r="BH9" s="36" t="s">
+      <c r="BH9" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="BI9" s="36" t="s">
+      <c r="BI9" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="BJ9" s="36" t="s">
+      <c r="BJ9" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="BK9" s="36">
+      <c r="BK9" s="34">
         <v>20</v>
       </c>
-      <c r="BL9" s="36" t="s">
+      <c r="BL9" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="BM9" s="36" t="s">
+      <c r="BM9" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="BN9" s="36" t="s">
+      <c r="BN9" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="BO9" s="36" t="s">
+      <c r="BO9" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="BP9" s="39" t="s">
+      <c r="BP9" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="BQ9" s="41" t="s">
+      <c r="BQ9" s="39" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:69" s="30" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:69" s="29" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="b">
         <v>1</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44">
+      <c r="B10" s="55"/>
+      <c r="C10" s="41">
         <v>776</v>
       </c>
-      <c r="D10" s="45" t="s">
+      <c r="D10" s="42" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="F10" s="47">
+      <c r="F10" s="44">
         <v>605777</v>
       </c>
-      <c r="G10" s="48" t="s">
+      <c r="G10" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="48" t="s">
+      <c r="I10" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="J10" s="48" t="s">
+      <c r="J10" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="48" t="s">
+      <c r="K10" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L10" s="48" t="s">
+      <c r="L10" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="M10" s="48" t="s">
+      <c r="M10" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48" t="s">
+      <c r="N10" s="45"/>
+      <c r="O10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="P10" s="48" t="s">
+      <c r="P10" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="43">
         <v>894</v>
       </c>
-      <c r="R10" s="48" t="s">
+      <c r="R10" s="45" t="s">
         <v>143</v>
       </c>
-      <c r="S10" s="48" t="s">
+      <c r="S10" s="45" t="s">
         <v>144</v>
       </c>
-      <c r="T10" s="48" t="s">
+      <c r="T10" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="U10" s="48" t="s">
+      <c r="U10" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="V10" s="48" t="s">
+      <c r="V10" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="W10" s="48" t="s">
+      <c r="W10" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="X10" s="49" t="s">
+      <c r="X10" s="46" t="s">
         <v>124</v>
       </c>
-      <c r="Y10" s="50">
+      <c r="Y10" s="47">
         <v>222327008</v>
       </c>
-      <c r="Z10" s="50" t="s">
+      <c r="Z10" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="AA10" s="50" t="s">
+      <c r="AA10" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="AB10" s="47" t="s">
+      <c r="AB10" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="AC10" s="48"/>
-      <c r="AD10" s="48" t="s">
+      <c r="AC10" s="45"/>
+      <c r="AD10" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="AE10" s="48" t="s">
+      <c r="AE10" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="AF10" s="48">
+      <c r="AF10" s="45">
         <v>50</v>
       </c>
-      <c r="AG10" s="51" t="s">
+      <c r="AG10" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="AH10" s="48" t="s">
+      <c r="AH10" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="AI10" s="48"/>
-      <c r="AJ10" s="48"/>
-      <c r="AK10" s="52"/>
-      <c r="AL10" s="52"/>
-      <c r="AM10" s="52"/>
-      <c r="AN10" s="52"/>
-      <c r="AO10" s="52"/>
-      <c r="AP10" s="52"/>
-      <c r="AQ10" s="52"/>
-      <c r="AR10" s="52"/>
-      <c r="AS10" s="52"/>
-      <c r="AT10" s="52"/>
-      <c r="AU10" s="52"/>
-      <c r="AV10" s="52"/>
-      <c r="AW10" s="52"/>
-      <c r="AX10" s="52"/>
-      <c r="AY10" s="48">
-        <v>20</v>
-      </c>
-      <c r="AZ10" s="48">
-        <v>15</v>
-      </c>
-      <c r="BA10" s="48">
-        <v>20</v>
-      </c>
-      <c r="BB10" s="48" t="s">
+      <c r="AI10" s="45"/>
+      <c r="AJ10" s="45"/>
+      <c r="AK10" s="49"/>
+      <c r="AL10" s="49"/>
+      <c r="AM10" s="49"/>
+      <c r="AN10" s="49"/>
+      <c r="AO10" s="49"/>
+      <c r="AP10" s="49"/>
+      <c r="AQ10" s="49"/>
+      <c r="AR10" s="49"/>
+      <c r="AS10" s="49"/>
+      <c r="AT10" s="49"/>
+      <c r="AU10" s="49"/>
+      <c r="AV10" s="49"/>
+      <c r="AW10" s="49"/>
+      <c r="AX10" s="49"/>
+      <c r="AY10" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="AZ10" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="BA10" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB10" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="BC10" s="48" t="s">
+      <c r="BC10" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="BD10" s="48" t="s">
+      <c r="BD10" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="BE10" s="48" t="s">
+      <c r="BE10" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="BF10" s="47">
+      <c r="BF10" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="BG10" s="45">
+        <v>2</v>
+      </c>
+      <c r="BH10" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="BI10" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ10" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="BK10" s="45">
         <v>100</v>
       </c>
-      <c r="BG10" s="48">
-        <v>2</v>
-      </c>
-      <c r="BH10" s="48" t="s">
-        <v>91</v>
-      </c>
-      <c r="BI10" s="48" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ10" s="48" t="s">
-        <v>127</v>
-      </c>
-      <c r="BK10" s="48">
-        <v>50</v>
-      </c>
-      <c r="BL10" s="48" t="s">
+      <c r="BL10" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="BM10" s="48" t="s">
+      <c r="BM10" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="BN10" s="48"/>
-      <c r="BO10" s="48" t="s">
+      <c r="BN10" s="45"/>
+      <c r="BO10" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="BP10" s="52" t="s">
+      <c r="BP10" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="BQ10" s="53" t="s">
+      <c r="BQ10" s="50" t="s">
         <v>96</v>
       </c>
     </row>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/Grn Alcohol.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/Grn Alcohol.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwinchester\Documents\ShipWorks3x\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Projects\ShipWorks\Code\ShipWorks.Tests.Integration\DataSources\FedExAll\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,11 +15,11 @@
     <sheet name="Grn Alcohol" sheetId="18" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grn Alcohol'!$A$2:$BR$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Grn Alcohol'!$A$2:$BQ$2</definedName>
     <definedName name="_lu1">#REF!</definedName>
     <definedName name="_lu2">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -29,7 +29,7 @@
     <author>amalviy</author>
   </authors>
   <commentList>
-    <comment ref="G6" authorId="0" shapeId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="163">
   <si>
     <t>GUARANTEED_FUNDS</t>
   </si>
@@ -538,14 +538,23 @@
 </t>
   </si>
   <si>
-    <t>Save Label</t>
+    <t>SaveLabel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessShipmentRequest.RequestedShipment.SpecialServicesRequested2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ProcessShipmentRequest.RequestedShipment.SpecialServicesRequested3 </t>
+  </si>
+  <si>
+    <t>Shipper Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="34" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -673,12 +682,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -756,7 +759,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,18 +796,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="19">
     <border>
@@ -1061,237 +1052,237 @@
   </borders>
   <cellStyleXfs count="364">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
@@ -1300,42 +1291,42 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
@@ -1395,7 +1386,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
@@ -1408,24 +1399,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1439,201 +1430,192 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="1" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="5" borderId="1" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="1" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="5" borderId="13" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="13" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="5" borderId="14" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="5" borderId="14" xfId="221" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="3" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="2" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="130" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="3" borderId="3" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="221" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="364">
@@ -2105,23 +2087,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2157,23 +2122,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2355,368 +2303,373 @@
   </sheetPr>
   <dimension ref="A1:BT13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="BT11" sqref="BT11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="50.7109375" style="2" customWidth="1"/>
-    <col min="9" max="10" width="22.5703125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="35" style="2" customWidth="1"/>
-    <col min="12" max="13" width="36.140625" style="2" customWidth="1"/>
-    <col min="14" max="14" width="19" style="2" customWidth="1"/>
-    <col min="15" max="15" width="18.28515625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.5703125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="24" style="2" customWidth="1"/>
-    <col min="19" max="21" width="18.5703125" style="2" customWidth="1"/>
-    <col min="22" max="22" width="33.5703125" style="2" customWidth="1"/>
-    <col min="23" max="24" width="20" style="2" customWidth="1"/>
-    <col min="25" max="26" width="20.28515625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="24" style="2" customWidth="1"/>
-    <col min="28" max="28" width="33.140625" style="2" customWidth="1"/>
-    <col min="29" max="30" width="20.28515625" style="2" customWidth="1"/>
-    <col min="31" max="31" width="51" style="2" customWidth="1"/>
-    <col min="32" max="32" width="36.42578125" style="2" customWidth="1"/>
-    <col min="33" max="33" width="21.28515625" style="2" customWidth="1"/>
-    <col min="34" max="34" width="27.28515625" style="2" customWidth="1"/>
-    <col min="35" max="37" width="51.5703125" style="2" customWidth="1"/>
-    <col min="38" max="38" width="32.5703125" style="2" customWidth="1"/>
-    <col min="39" max="40" width="40.42578125" style="2" customWidth="1"/>
-    <col min="41" max="41" width="39.85546875" style="2" customWidth="1"/>
-    <col min="42" max="42" width="49.140625" style="2" customWidth="1"/>
-    <col min="43" max="43" width="40.28515625" style="2" customWidth="1"/>
-    <col min="44" max="44" width="26.140625" style="2" customWidth="1"/>
-    <col min="45" max="45" width="19.7109375" style="2" customWidth="1"/>
-    <col min="46" max="46" width="19.5703125" style="2" customWidth="1"/>
-    <col min="47" max="49" width="24.140625" style="2" customWidth="1"/>
-    <col min="50" max="55" width="24.42578125" style="2" customWidth="1"/>
-    <col min="56" max="57" width="21.42578125" style="2" customWidth="1"/>
-    <col min="58" max="63" width="45.28515625" style="2" customWidth="1"/>
-    <col min="64" max="65" width="47.28515625" style="2" customWidth="1"/>
-    <col min="66" max="66" width="28.28515625" style="2" customWidth="1"/>
-    <col min="67" max="67" width="36.140625" style="2" customWidth="1"/>
-    <col min="68" max="68" width="51.28515625" style="2" customWidth="1"/>
-    <col min="69" max="70" width="61" style="2" customWidth="1"/>
-    <col min="71" max="71" width="50.7109375" style="2" customWidth="1"/>
-    <col min="72" max="72" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="69.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="50.7109375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="22.5703125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="35" style="2" customWidth="1"/>
+    <col min="11" max="12" width="36.140625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="19" style="2" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" style="2" customWidth="1"/>
+    <col min="15" max="15" width="21.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="18.5703125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="24" style="2" customWidth="1"/>
+    <col min="18" max="20" width="18.5703125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="33.5703125" style="2" customWidth="1"/>
+    <col min="22" max="23" width="20" style="2" customWidth="1"/>
+    <col min="24" max="25" width="20.28515625" style="2" customWidth="1"/>
+    <col min="26" max="26" width="24" style="2" customWidth="1"/>
+    <col min="27" max="27" width="33.140625" style="2" customWidth="1"/>
+    <col min="28" max="29" width="20.28515625" style="2" customWidth="1"/>
+    <col min="30" max="30" width="51" style="2" customWidth="1"/>
+    <col min="31" max="31" width="36.42578125" style="2" customWidth="1"/>
+    <col min="32" max="32" width="21.28515625" style="2" customWidth="1"/>
+    <col min="33" max="33" width="27.28515625" style="2" customWidth="1"/>
+    <col min="34" max="36" width="51.5703125" style="2" customWidth="1"/>
+    <col min="37" max="37" width="32.5703125" style="2" customWidth="1"/>
+    <col min="38" max="39" width="40.42578125" style="2" customWidth="1"/>
+    <col min="40" max="40" width="39.85546875" style="2" customWidth="1"/>
+    <col min="41" max="41" width="49.140625" style="2" customWidth="1"/>
+    <col min="42" max="42" width="40.28515625" style="2" customWidth="1"/>
+    <col min="43" max="43" width="26.140625" style="2" customWidth="1"/>
+    <col min="44" max="44" width="19.7109375" style="2" customWidth="1"/>
+    <col min="45" max="45" width="19.5703125" style="2" customWidth="1"/>
+    <col min="46" max="48" width="24.140625" style="2" customWidth="1"/>
+    <col min="49" max="54" width="24.42578125" style="2" customWidth="1"/>
+    <col min="55" max="56" width="21.42578125" style="2" customWidth="1"/>
+    <col min="57" max="62" width="45.28515625" style="2" customWidth="1"/>
+    <col min="63" max="64" width="47.28515625" style="2" customWidth="1"/>
+    <col min="65" max="65" width="28.28515625" style="2" customWidth="1"/>
+    <col min="66" max="66" width="36.140625" style="2" customWidth="1"/>
+    <col min="67" max="67" width="51.28515625" style="2" customWidth="1"/>
+    <col min="68" max="69" width="61" style="2" customWidth="1"/>
+    <col min="70" max="70" width="50.7109375" style="2" customWidth="1"/>
+    <col min="71" max="71" width="18" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72" s="52" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="62"/>
-      <c r="B1" s="53" t="s">
+    <row r="1" spans="1:72" s="51" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="53"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="48" t="s">
+        <v>116</v>
+      </c>
       <c r="D1" s="49" t="s">
-        <v>116</v>
-      </c>
-      <c r="E1" s="50" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="E1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="F1" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="G1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="I1" s="50" t="s">
+      <c r="H1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="J1" s="50" t="s">
+      <c r="I1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="J1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="61" t="s">
+      <c r="K1" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="L1" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="N1" s="61" t="s">
+      <c r="M1" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="O1" s="61" t="s">
+      <c r="N1" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="P1" s="61" t="s">
+      <c r="O1" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="61" t="s">
+      <c r="P1" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="R1" s="61" t="s">
+      <c r="Q1" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="S1" s="61" t="s">
+      <c r="R1" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="T1" s="61" t="s">
+      <c r="S1" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="T1" s="60" t="s">
         <v>132</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="U1" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="V1" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="W1" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="Y1" s="61" t="s">
+      <c r="X1" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="Z1" s="61" t="s">
+      <c r="Y1" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="AA1" s="61" t="s">
+      <c r="Z1" s="60" t="s">
         <v>133</v>
       </c>
-      <c r="AB1" s="50" t="s">
+      <c r="AA1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AC1" s="50" t="s">
+      <c r="AB1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AD1" s="50" t="s">
+      <c r="AC1" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="AE1" s="50" t="s">
+      <c r="AD1" s="49" t="s">
         <v>148</v>
       </c>
-      <c r="AF1" s="48" t="s">
+      <c r="AE1" s="47" t="s">
         <v>139</v>
       </c>
-      <c r="AG1" s="48" t="s">
+      <c r="AF1" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="AH1" s="48" t="s">
+      <c r="AG1" s="47" t="s">
         <v>140</v>
       </c>
-      <c r="AI1" s="61" t="s">
+      <c r="AH1" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="AJ1" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK1" s="61" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL1" s="51" t="s">
+      <c r="AI1" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ1" s="60" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK1" s="50" t="s">
         <v>142</v>
       </c>
-      <c r="AM1" s="61" t="s">
+      <c r="AL1" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="AN1" s="61" t="s">
+      <c r="AM1" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="AO1" s="50" t="s">
+      <c r="AN1" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AP1" s="50" t="s">
+      <c r="AO1" s="49" t="s">
         <v>150</v>
       </c>
-      <c r="AQ1" s="50" t="s">
+      <c r="AP1" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="AR1" s="50" t="s">
+      <c r="AQ1" s="49" t="s">
         <v>153</v>
       </c>
-      <c r="AS1" s="50" t="s">
+      <c r="AR1" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="AT1" s="50" t="s">
+      <c r="AS1" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="AU1" s="50" t="s">
+      <c r="AT1" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AV1" s="50" t="s">
+      <c r="AU1" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AW1" s="50" t="s">
+      <c r="AV1" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="AX1" s="50" t="s">
+      <c r="AW1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="AY1" s="50" t="s">
+      <c r="AX1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="AZ1" s="50" t="s">
+      <c r="AY1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="BA1" s="50" t="s">
+      <c r="AZ1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="BB1" s="50" t="s">
+      <c r="BA1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="BC1" s="50" t="s">
+      <c r="BB1" s="49" t="s">
         <v>156</v>
       </c>
-      <c r="BD1" s="50" t="s">
+      <c r="BC1" s="49" t="s">
         <v>151</v>
       </c>
-      <c r="BE1" s="50" t="s">
+      <c r="BD1" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="BF1" s="61" t="s">
+      <c r="BE1" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="BG1" s="61" t="s">
+      <c r="BF1" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="BH1" s="61" t="s">
+      <c r="BG1" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="BI1" s="61" t="s">
+      <c r="BH1" s="60" t="s">
         <v>145</v>
       </c>
-      <c r="BJ1" s="61" t="s">
+      <c r="BI1" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="BK1" s="61" t="s">
+      <c r="BJ1" s="60" t="s">
         <v>146</v>
       </c>
-      <c r="BL1" s="61" t="s">
+      <c r="BK1" s="60" t="s">
         <v>143</v>
       </c>
-      <c r="BM1" s="61" t="s">
+      <c r="BL1" s="60" t="s">
         <v>143</v>
       </c>
+      <c r="BM1" s="49" t="s">
+        <v>80</v>
+      </c>
       <c r="BN1" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="BO1" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="BP1" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="BQ1" s="60" t="s">
+        <v>152</v>
+      </c>
+      <c r="BR1" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="BO1" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="BP1" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="BQ1" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="BR1" s="61" t="s">
-        <v>152</v>
-      </c>
-      <c r="BS1" s="50" t="s">
-        <v>80</v>
-      </c>
-      <c r="BT1" s="54" t="s">
+      <c r="BS1" s="53" t="s">
         <v>138</v>
+      </c>
+      <c r="BT1" s="53" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:72" s="7" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8"/>
       <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="G2" s="5" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="N2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="V2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="X2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="R2" s="5" t="s">
+      <c r="Z2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="AA2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="T2" s="5" t="s">
+      <c r="AB2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AC2" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="5" t="s">
+      <c r="AD2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="AE2" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF2" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG2" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="AB2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="AC2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="AF2" s="55" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG2" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="AH2" s="56" t="s">
-        <v>88</v>
+      <c r="AH2" s="5" t="s">
+        <v>81</v>
       </c>
       <c r="AI2" s="5" t="s">
         <v>81</v>
@@ -2728,226 +2681,227 @@
         <v>81</v>
       </c>
       <c r="AL2" s="5" t="s">
-        <v>81</v>
+        <v>24</v>
       </c>
       <c r="AM2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AN2" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="AO2" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP2" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="AQ2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="AR2" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AS2" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AT2" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="AU2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AV2" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AW2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AX2" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AY2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="AZ2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="BA2" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="BB2" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="BD2" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="BE2" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="BG2" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="BH2" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="BJ2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="AN2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO2" s="5" t="s">
+      <c r="BK2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AP2" s="5" t="s">
+      <c r="BL2" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AQ2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="AR2" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="AS2" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="AT2" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="AU2" s="5" t="s">
+      <c r="BM2" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="BN2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="BO2" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="BP2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ2" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="BR2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="BS2" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="BT2" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="AV2" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW2" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="AX2" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="AY2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="AZ2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="BA2" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="BB2" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="BC2" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD2" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="BE2" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="BF2" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="BG2" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="BH2" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="BI2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="BK2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="BL2" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="BM2" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="BN2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="BO2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="BP2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="BQ2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="BR2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="BS2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="BT2" s="6" t="s">
-        <v>136</v>
-      </c>
     </row>
-    <row r="3" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="69" t="b">
+    <row r="3" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="64" t="b">
         <v>0</v>
       </c>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="65" t="s">
         <v>158</v>
       </c>
-      <c r="D3" s="57">
+      <c r="C3" s="56">
         <v>270</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="D3" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="E3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="26">
+      <c r="F3" s="26">
         <v>605737</v>
       </c>
-      <c r="H3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="I3" s="22" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="K3" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="L3" s="22">
+      <c r="K3" s="22">
         <v>142</v>
       </c>
+      <c r="L3" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="M3" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="56">
+        <v>270</v>
+      </c>
+      <c r="W3" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="X3" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z3" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA3" s="22">
+        <v>38123</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC3" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD3" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE3" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF3" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG3" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH3" s="22"/>
+      <c r="AI3" s="22"/>
+      <c r="AJ3" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK3" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="AM3" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="N3" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="57">
-        <v>270</v>
-      </c>
-      <c r="X3" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y3" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z3" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA3" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB3" s="22">
-        <v>38123</v>
-      </c>
-      <c r="AC3" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD3" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE3" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF3" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG3" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH3" s="24" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI3" s="22"/>
-      <c r="AJ3" s="22"/>
-      <c r="AK3" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL3" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN3" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO3" s="22"/>
-      <c r="AP3" s="22" t="s">
+      <c r="AN3" s="22"/>
+      <c r="AO3" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="AQ3" s="22"/>
+      <c r="AP3" s="22"/>
+      <c r="AQ3" s="25"/>
       <c r="AR3" s="25"/>
       <c r="AS3" s="25"/>
       <c r="AT3" s="25"/>
@@ -2961,561 +2915,571 @@
       <c r="BB3" s="25"/>
       <c r="BC3" s="25"/>
       <c r="BD3" s="25"/>
-      <c r="BE3" s="25"/>
+      <c r="BE3" s="22" t="s">
+        <v>4</v>
+      </c>
       <c r="BF3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="BG3" s="22" t="s">
-        <v>5</v>
-      </c>
       <c r="BH3" s="22" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="BI3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ3" s="22" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK3" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="BM3" s="22">
+        <v>2</v>
+      </c>
+      <c r="BN3" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO3" s="22"/>
+      <c r="BP3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ3" s="25"/>
+      <c r="BR3" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="BS3" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT3" s="46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="64" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="57">
+        <v>281</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="28">
+        <v>605749</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="K4" s="29">
+        <v>50</v>
+      </c>
+      <c r="L4" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R4" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="29"/>
+      <c r="T4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V4" s="57">
+        <v>281</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA4" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="AB4" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC4" s="34"/>
+      <c r="AD4" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF4" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG4" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH4" s="29"/>
+      <c r="AI4" s="29" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ4" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK4" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL4" s="29">
+        <v>50</v>
+      </c>
+      <c r="AM4" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO4" s="29">
+        <v>100</v>
+      </c>
+      <c r="AP4" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="32">
+        <v>214877600</v>
+      </c>
+      <c r="AR4" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS4" s="32">
+        <v>123456789</v>
+      </c>
+      <c r="AT4" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU4" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV4" s="32">
+        <v>9012633035</v>
+      </c>
+      <c r="AW4" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX4" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY4" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ4" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA4" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB4" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC4" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD4" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="BE4" s="29">
+        <v>20</v>
+      </c>
+      <c r="BF4" s="29">
+        <v>15</v>
+      </c>
+      <c r="BG4" s="29">
+        <v>20</v>
+      </c>
+      <c r="BH4" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BJ3" s="22" t="s">
+      <c r="BI4" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="BK3" s="22" t="s">
+      <c r="BJ4" s="29" t="s">
         <v>123</v>
       </c>
-      <c r="BL3" s="22" t="s">
+      <c r="BK4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="BM3" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="BN3" s="22">
-        <v>2</v>
-      </c>
-      <c r="BO3" s="22" t="s">
+      <c r="BL4" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM4" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="BP3" s="22"/>
-      <c r="BQ3" s="22" t="s">
+      <c r="BO4" s="29"/>
+      <c r="BP4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BR3" s="25"/>
-      <c r="BS3" s="22" t="s">
+      <c r="BQ4" s="32"/>
+      <c r="BR4" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="BT3" s="47" t="s">
+      <c r="BS4" s="36" t="s">
         <v>135</v>
       </c>
+      <c r="BT4" s="46" t="s">
+        <v>162</v>
+      </c>
     </row>
-    <row r="4" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="69" t="b">
+    <row r="5" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="b">
         <v>0</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="58">
-        <v>281</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="30" t="s">
+      <c r="B5" s="66"/>
+      <c r="C5" s="57">
+        <v>277</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="E5" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="28">
-        <v>605749</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29" t="s">
+      <c r="F5" s="28">
+        <v>605752</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="I5" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="K4" s="29" t="s">
+      <c r="J5" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="L4" s="29">
+      <c r="K5" s="29">
         <v>50</v>
       </c>
-      <c r="M4" s="29" t="s">
+      <c r="L5" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="M5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="N5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="29" t="s">
+      <c r="O5" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="Q4" s="29" t="s">
+      <c r="P5" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="R4" s="29" t="s">
+      <c r="Q5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="S4" s="29" t="s">
+      <c r="R5" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="29"/>
-      <c r="U4" s="29" t="s">
+      <c r="S5" s="29"/>
+      <c r="T5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="V4" s="29" t="s">
+      <c r="U5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="58">
-        <v>281</v>
-      </c>
-      <c r="X4" s="29" t="s">
+      <c r="V5" s="57">
+        <v>277</v>
+      </c>
+      <c r="W5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="Y4" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z4" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA4" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB4" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC4" s="29" t="s">
+      <c r="X5" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y5" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z5" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA5" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="AD4" s="34"/>
-      <c r="AE4" s="29" t="s">
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="AF4" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG4" s="31" t="s">
+      <c r="AE5" s="31">
+        <v>222326680</v>
+      </c>
+      <c r="AF5" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="AH4" s="31" t="s">
+      <c r="AG5" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="AI4" s="29"/>
-      <c r="AJ4" s="29" t="s">
+      <c r="AH5" s="29"/>
+      <c r="AI5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="AK4" s="29" t="s">
+      <c r="AJ5" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="AL4" s="30" t="s">
+      <c r="AK5" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="AM4" s="29">
+      <c r="AL5" s="29">
         <v>50</v>
       </c>
-      <c r="AN4" s="33" t="s">
+      <c r="AM5" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="AO4" s="29" t="s">
+      <c r="AN5" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="AP4" s="29">
+      <c r="AO5" s="29">
+        <v>25</v>
+      </c>
+      <c r="AP5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="32">
+        <v>214877600</v>
+      </c>
+      <c r="AR5" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS5" s="32">
+        <v>123456789</v>
+      </c>
+      <c r="AT5" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="AV5" s="32">
+        <v>9012633035</v>
+      </c>
+      <c r="AW5" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="AY5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="AZ5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="BA5" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="BB5" s="32"/>
+      <c r="BC5" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD5" s="32"/>
+      <c r="BE5" s="29">
+        <v>20</v>
+      </c>
+      <c r="BF5" s="29">
+        <v>15</v>
+      </c>
+      <c r="BG5" s="29">
+        <v>20</v>
+      </c>
+      <c r="BH5" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI5" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ5" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL5" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM5" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO5" s="29"/>
+      <c r="BP5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ5" s="32"/>
+      <c r="BR5" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="BS5" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT5" s="46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="64" t="b">
+        <v>0</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="57">
+        <v>770</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="28">
+        <v>605766</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="J6" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K6" s="29">
+        <v>70</v>
+      </c>
+      <c r="L6" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="P6" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="U6" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V6" s="57">
+        <v>770</v>
+      </c>
+      <c r="W6" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="X6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y6" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z6" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA6" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB6" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC6" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="AQ4" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR4" s="32">
-        <v>214877600</v>
-      </c>
-      <c r="AS4" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT4" s="32">
-        <v>123456789</v>
-      </c>
-      <c r="AU4" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV4" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW4" s="32">
-        <v>9012633035</v>
-      </c>
-      <c r="AX4" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY4" s="32" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ4" s="32" t="s">
-        <v>12</v>
-      </c>
-      <c r="BA4" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB4" s="32" t="s">
+      <c r="AD6" s="29" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF6" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="BC4" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD4" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE4" s="32" t="s">
-        <v>134</v>
-      </c>
-      <c r="BF4" s="29">
-        <v>20</v>
-      </c>
-      <c r="BG4" s="29">
-        <v>15</v>
-      </c>
-      <c r="BH4" s="29">
-        <v>20</v>
-      </c>
-      <c r="BI4" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ4" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK4" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL4" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN4" s="29">
-        <v>1</v>
-      </c>
-      <c r="BO4" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="BP4" s="29"/>
-      <c r="BQ4" s="29" t="s">
+      <c r="AH6" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI6" s="29"/>
+      <c r="AJ6" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK6" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL6" s="29">
+        <v>70</v>
+      </c>
+      <c r="AM6" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BR4" s="32"/>
-      <c r="BS4" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="BT4" s="36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="45"/>
-      <c r="B5" s="70"/>
-      <c r="C5" s="66"/>
-      <c r="D5" s="58">
-        <v>277</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>127</v>
-      </c>
-      <c r="F5" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="28">
-        <v>605752</v>
-      </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="L5" s="29">
-        <v>50</v>
-      </c>
-      <c r="M5" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="N5" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q5" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="R5" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S5" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="V5" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" s="58">
-        <v>277</v>
-      </c>
-      <c r="X5" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y5" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z5" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA5" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB5" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="AC5" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD5" s="29"/>
-      <c r="AE5" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF5" s="31">
-        <v>222326680</v>
-      </c>
-      <c r="AG5" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH5" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI5" s="29"/>
-      <c r="AJ5" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK5" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL5" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM5" s="29">
-        <v>50</v>
-      </c>
-      <c r="AN5" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO5" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="AP5" s="29">
-        <v>25</v>
-      </c>
-      <c r="AQ5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="AR5" s="32">
-        <v>214877600</v>
-      </c>
-      <c r="AS5" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT5" s="32">
-        <v>123456789</v>
-      </c>
-      <c r="AU5" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV5" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW5" s="32">
-        <v>9012633035</v>
-      </c>
-      <c r="AX5" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY5" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ5" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="BA5" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB5" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC5" s="32"/>
-      <c r="BD5" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE5" s="32"/>
-      <c r="BF5" s="29">
-        <v>20</v>
-      </c>
-      <c r="BG5" s="29">
-        <v>15</v>
-      </c>
-      <c r="BH5" s="29">
-        <v>20</v>
-      </c>
-      <c r="BI5" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ5" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK5" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL5" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM5" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN5" s="29">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="BP5" s="29"/>
-      <c r="BQ5" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="BR5" s="32"/>
-      <c r="BS5" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="BT5" s="36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B6" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="58">
-        <v>770</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>128</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="28">
-        <v>605766</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="J6" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K6" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="L6" s="29">
-        <v>70</v>
-      </c>
-      <c r="M6" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="N6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O6" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q6" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="R6" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S6" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="T6" s="29"/>
-      <c r="U6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="V6" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="58">
-        <v>770</v>
-      </c>
-      <c r="X6" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y6" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="Z6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA6" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB6" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC6" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD6" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE6" s="29" t="s">
-        <v>27</v>
-      </c>
-      <c r="AF6" s="31" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG6" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH6" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI6" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ6" s="29"/>
-      <c r="AK6" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL6" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM6" s="29">
-        <v>70</v>
-      </c>
-      <c r="AN6" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO6" s="29"/>
-      <c r="AP6" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="AQ6" s="29"/>
+      <c r="AP6" s="29"/>
+      <c r="AQ6" s="32"/>
       <c r="AR6" s="32"/>
       <c r="AS6" s="32"/>
       <c r="AT6" s="32"/>
@@ -3529,164 +3493,167 @@
       <c r="BB6" s="32"/>
       <c r="BC6" s="32"/>
       <c r="BD6" s="32"/>
-      <c r="BE6" s="32"/>
+      <c r="BE6" s="29">
+        <v>20</v>
+      </c>
       <c r="BF6" s="29">
         <v>20</v>
       </c>
-      <c r="BG6" s="29">
+      <c r="BG6" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH6" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI6" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM6" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN6" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO6" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="BP6" s="29"/>
+      <c r="BQ6" s="29"/>
+      <c r="BR6" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="BS6" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="BT6" s="46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="64" t="b">
+        <v>0</v>
+      </c>
+      <c r="B7" s="66"/>
+      <c r="C7" s="57">
+        <v>780</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="28">
+        <v>605772</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K7" s="29">
+        <v>60</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M7" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="P7" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R7" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="S7" s="29"/>
+      <c r="T7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="U7" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V7" s="57">
+        <v>780</v>
+      </c>
+      <c r="W7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="X7" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y7" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z7" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="BH6" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="BI6" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ6" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK6" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL6" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM6" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN6" s="29">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="BP6" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="BQ6" s="29"/>
-      <c r="BR6" s="29"/>
-      <c r="BS6" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="BT6" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="C7" s="66"/>
-      <c r="D7" s="58">
-        <v>780</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="28">
-        <v>605772</v>
-      </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="J7" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="29">
+      <c r="AA7" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB7" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC7" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE7" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF7" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG7" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH7" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI7" s="29"/>
+      <c r="AJ7" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK7" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL7" s="29">
         <v>60</v>
       </c>
-      <c r="M7" s="29" t="s">
+      <c r="AM7" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="N7" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S7" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="T7" s="29"/>
-      <c r="U7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="V7" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" s="58">
-        <v>780</v>
-      </c>
-      <c r="X7" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y7" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z7" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA7" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB7" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="AC7" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD7" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE7" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF7" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG7" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH7" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI7" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ7" s="29"/>
-      <c r="AK7" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL7" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM7" s="29">
-        <v>60</v>
-      </c>
-      <c r="AN7" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO7" s="29"/>
-      <c r="AP7" s="29" t="s">
+      <c r="AN7" s="29"/>
+      <c r="AO7" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AQ7" s="29"/>
+      <c r="AP7" s="29"/>
+      <c r="AQ7" s="32"/>
       <c r="AR7" s="32"/>
       <c r="AS7" s="32"/>
       <c r="AT7" s="32"/>
@@ -3700,168 +3667,171 @@
       <c r="BB7" s="32"/>
       <c r="BC7" s="32"/>
       <c r="BD7" s="32"/>
-      <c r="BE7" s="32"/>
+      <c r="BE7" s="29">
+        <v>20</v>
+      </c>
       <c r="BF7" s="29">
+        <v>15</v>
+      </c>
+      <c r="BG7" s="29">
         <v>20</v>
       </c>
-      <c r="BG7" s="29">
-        <v>15</v>
-      </c>
-      <c r="BH7" s="29">
+      <c r="BH7" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI7" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ7" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL7" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM7" s="29">
+        <v>1</v>
+      </c>
+      <c r="BN7" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="BO7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="BP7" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="BQ7" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="BR7" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="BS7" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="BT7" s="46" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="64" t="b">
+        <v>0</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="57">
+        <v>777</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="28">
+        <v>605776</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="29">
         <v>20</v>
       </c>
-      <c r="BI7" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ7" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="BK7" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL7" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM7" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN7" s="29">
-        <v>1</v>
-      </c>
-      <c r="BO7" s="29" t="s">
-        <v>29</v>
-      </c>
-      <c r="BP7" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="BQ7" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="BR7" s="29" t="s">
+      <c r="L8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="N8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BS7" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="BT7" s="36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="C8" s="66"/>
-      <c r="D8" s="58">
+      <c r="O8" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="29" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="29" t="s">
+        <v>12</v>
+      </c>
+      <c r="R8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="S8" s="29"/>
+      <c r="T8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="U8" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="V8" s="57">
         <v>777</v>
       </c>
-      <c r="E8" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="28">
-        <v>605776</v>
-      </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="J8" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="L8" s="29">
+      <c r="W8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="X8" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y8" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA8" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC8" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD8" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE8" s="28">
+        <v>222327008</v>
+      </c>
+      <c r="AF8" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG8" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH8" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI8" s="29"/>
+      <c r="AJ8" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK8" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL8" s="29">
         <v>20</v>
       </c>
-      <c r="M8" s="29" t="s">
+      <c r="AM8" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="N8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q8" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="R8" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="S8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="T8" s="29"/>
-      <c r="U8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="V8" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="58">
-        <v>777</v>
-      </c>
-      <c r="X8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y8" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z8" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA8" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="AB8" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="AC8" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD8" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE8" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF8" s="28">
-        <v>222327008</v>
-      </c>
-      <c r="AG8" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH8" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI8" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="29" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL8" s="30" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM8" s="29">
-        <v>20</v>
-      </c>
-      <c r="AN8" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO8" s="29"/>
-      <c r="AP8" s="29" t="s">
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AQ8" s="29"/>
+      <c r="AP8" s="29"/>
+      <c r="AQ8" s="32"/>
       <c r="AR8" s="32"/>
       <c r="AS8" s="32"/>
       <c r="AT8" s="32"/>
@@ -3875,168 +3845,171 @@
       <c r="BB8" s="32"/>
       <c r="BC8" s="32"/>
       <c r="BD8" s="32"/>
-      <c r="BE8" s="32"/>
+      <c r="BE8" s="29">
+        <v>20</v>
+      </c>
       <c r="BF8" s="29">
+        <v>15</v>
+      </c>
+      <c r="BG8" s="29">
         <v>20</v>
       </c>
-      <c r="BG8" s="29">
-        <v>15</v>
-      </c>
-      <c r="BH8" s="29">
-        <v>20</v>
+      <c r="BH8" s="29" t="s">
+        <v>66</v>
       </c>
       <c r="BI8" s="29" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="BJ8" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="BL8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM8" s="29">
         <v>1</v>
       </c>
-      <c r="BK8" s="29" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL8" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM8" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="BN8" s="29">
-        <v>1</v>
+      <c r="BN8" s="29" t="s">
+        <v>29</v>
       </c>
       <c r="BO8" s="29" t="s">
-        <v>29</v>
+        <v>114</v>
       </c>
       <c r="BP8" s="29" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="BQ8" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="BR8" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="BS8" s="32" t="s">
+      <c r="BR8" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="BT8" s="36" t="s">
+      <c r="BS8" s="36" t="s">
         <v>135</v>
+      </c>
+      <c r="BT8" s="46" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="69" t="b">
+      <c r="A9" s="64" t="b">
         <v>0</v>
       </c>
-      <c r="C9" s="67"/>
-      <c r="D9" s="59">
+      <c r="B9" s="67"/>
+      <c r="C9" s="58">
         <v>776</v>
       </c>
-      <c r="E9" s="60" t="s">
+      <c r="D9" s="59" t="s">
         <v>131</v>
       </c>
-      <c r="F9" s="37" t="s">
+      <c r="E9" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="38">
+      <c r="F9" s="38">
         <v>605777</v>
       </c>
-      <c r="H9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39" t="s">
+        <v>107</v>
+      </c>
       <c r="I9" s="39" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="K9" s="39" t="s">
         <v>113</v>
       </c>
-      <c r="L9" s="39">
+      <c r="K9" s="39">
         <v>100</v>
       </c>
+      <c r="L9" s="39" t="s">
+        <v>110</v>
+      </c>
       <c r="M9" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N9" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="O9" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="R9" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="39"/>
+      <c r="T9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="U9" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="V9" s="58">
+        <v>776</v>
+      </c>
+      <c r="W9" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="X9" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y9" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z9" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA9" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB9" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC9" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD9" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE9" s="41">
+        <v>222327008</v>
+      </c>
+      <c r="AF9" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG9" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH9" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="AI9" s="39"/>
+      <c r="AJ9" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK9" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL9" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM9" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="N9" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="39" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q9" s="39" t="s">
-        <v>11</v>
-      </c>
-      <c r="R9" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="S9" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="T9" s="39"/>
-      <c r="U9" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="V9" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="W9" s="59">
-        <v>776</v>
-      </c>
-      <c r="X9" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y9" s="39" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z9" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="AA9" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB9" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC9" s="39" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD9" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="AE9" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF9" s="41">
-        <v>222327008</v>
-      </c>
-      <c r="AG9" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH9" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI9" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="AJ9" s="39"/>
-      <c r="AK9" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL9" s="39" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM9" s="39" t="s">
-        <v>7</v>
-      </c>
-      <c r="AN9" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO9" s="39"/>
-      <c r="AP9" s="39" t="s">
+      <c r="AN9" s="39"/>
+      <c r="AO9" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="AQ9" s="39"/>
+      <c r="AP9" s="39"/>
+      <c r="AQ9" s="43"/>
       <c r="AR9" s="43"/>
       <c r="AS9" s="43"/>
       <c r="AT9" s="43"/>
@@ -4050,278 +4023,283 @@
       <c r="BB9" s="43"/>
       <c r="BC9" s="43"/>
       <c r="BD9" s="43"/>
-      <c r="BE9" s="43"/>
+      <c r="BE9" s="39" t="s">
+        <v>4</v>
+      </c>
       <c r="BF9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="BG9" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="BG9" s="39" t="s">
-        <v>5</v>
-      </c>
       <c r="BH9" s="39" t="s">
-        <v>4</v>
+        <v>66</v>
       </c>
       <c r="BI9" s="39" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="BJ9" s="39" t="s">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="BK9" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL9" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="BM9" s="38" t="s">
+      <c r="BL9" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="BN9" s="39">
+      <c r="BM9" s="39">
         <v>2</v>
       </c>
+      <c r="BN9" s="39" t="s">
+        <v>29</v>
+      </c>
       <c r="BO9" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="BP9" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="BQ9" s="39"/>
-      <c r="BR9" s="39" t="s">
+      <c r="BP9" s="39"/>
+      <c r="BQ9" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="BS9" s="43" t="s">
+      <c r="BR9" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="BT9" s="44" t="s">
+      <c r="BS9" s="44" t="s">
         <v>135</v>
+      </c>
+      <c r="BT9" s="46" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:72" s="1" customFormat="1" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="69" t="b">
+      <c r="A10" s="64" t="b">
         <v>1</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="B10" s="63" t="s">
         <v>157</v>
       </c>
-      <c r="D10" s="12">
+      <c r="C10" s="12">
         <v>280</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="D10" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="20">
+      <c r="F10" s="20">
         <v>605746</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15" t="s">
+        <v>107</v>
+      </c>
       <c r="I10" s="15" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="K10" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="L10" s="15">
+      <c r="K10" s="15">
         <v>69</v>
       </c>
+      <c r="L10" s="15" t="s">
+        <v>110</v>
+      </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="O10" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="P10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="R10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S10" s="15"/>
+      <c r="T10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="U10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="V10" s="12">
+        <v>280</v>
+      </c>
+      <c r="W10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="X10" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y10" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z10" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA10" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC10" s="15"/>
+      <c r="AD10" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF10" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AH10" s="15"/>
+      <c r="AI10" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="AJ10" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AK10" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL10" s="15">
+        <v>69</v>
+      </c>
+      <c r="AM10" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="AN10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="AO10" s="15">
+        <v>25</v>
+      </c>
+      <c r="AP10" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="AQ10" s="18">
+        <v>214877600</v>
+      </c>
+      <c r="AR10" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AS10" s="18">
+        <v>123456789</v>
+      </c>
+      <c r="AT10" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU10" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q10" s="15" t="s">
+      <c r="AV10" s="18">
+        <v>9012633035</v>
+      </c>
+      <c r="AW10" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="AX10" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="R10" s="15" t="s">
+      <c r="AY10" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="15" t="s">
+      <c r="AZ10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15" t="s">
+      <c r="BA10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="V10" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="W10" s="12">
-        <v>280</v>
-      </c>
-      <c r="X10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y10" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="Z10" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA10" s="15" t="s">
+      <c r="BB10" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC10" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="BD10" s="18"/>
+      <c r="BE10" s="15">
+        <v>20</v>
+      </c>
+      <c r="BF10" s="15">
         <v>15</v>
       </c>
-      <c r="AB10" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC10" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG10" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="AH10" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="AI10" s="15"/>
-      <c r="AJ10" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="AK10" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL10" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AM10" s="15">
-        <v>69</v>
-      </c>
-      <c r="AN10" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AO10" s="15" t="s">
+      <c r="BG10" s="15">
+        <v>20</v>
+      </c>
+      <c r="BH10" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="BI10" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="BJ10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="BK10" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AP10" s="15">
-        <v>25</v>
-      </c>
-      <c r="AQ10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AR10" s="18">
-        <v>214877600</v>
-      </c>
-      <c r="AS10" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AT10" s="18">
-        <v>123456789</v>
-      </c>
-      <c r="AU10" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="AW10" s="18">
-        <v>9012633035</v>
-      </c>
-      <c r="AX10" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY10" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="AZ10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="BA10" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="BB10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="BC10" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="BD10" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="BE10" s="18"/>
-      <c r="BF10" s="15">
-        <v>20</v>
-      </c>
-      <c r="BG10" s="15">
-        <v>15</v>
-      </c>
-      <c r="BH10" s="15">
-        <v>20</v>
-      </c>
-      <c r="BI10" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="BJ10" s="15" t="s">
+      <c r="BL10" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM10" s="15">
         <v>1</v>
       </c>
-      <c r="BK10" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="BL10" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="BM10" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="BN10" s="15">
-        <v>1</v>
-      </c>
-      <c r="BO10" s="15" t="s">
+      <c r="BN10" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="BP10" s="15"/>
-      <c r="BQ10" s="15" t="s">
+      <c r="BO10" s="15"/>
+      <c r="BP10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="BR10" s="18"/>
-      <c r="BS10" s="15" t="s">
+      <c r="BQ10" s="18"/>
+      <c r="BR10" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="BT10" s="64" t="s">
+      <c r="BS10" s="62" t="s">
         <v>135</v>
+      </c>
+      <c r="BT10" s="62" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:72" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="AE11" s="4"/>
-      <c r="AF11" s="63"/>
-      <c r="AG11" s="4"/>
-      <c r="AH11" s="63"/>
-      <c r="AI11" s="4"/>
+      <c r="AD11" s="4"/>
+      <c r="AE11" s="61"/>
+      <c r="AF11" s="4"/>
+      <c r="AG11" s="61"/>
+      <c r="AH11" s="4"/>
     </row>
     <row r="12" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="63"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="63"/>
-      <c r="AI12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="61"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="61"/>
+      <c r="AH12" s="4"/>
     </row>
     <row r="13" spans="1:72" x14ac:dyDescent="0.2">
-      <c r="AE13" s="4"/>
-      <c r="AF13" s="63"/>
-      <c r="AG13" s="4"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="61"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="61"/>
+      <c r="AH13" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:C9"/>
+    <mergeCell ref="B3:B9"/>
   </mergeCells>
-  <phoneticPr fontId="20" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>

--- a/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/Grn Alcohol.xlsx
+++ b/Code/ShipWorks.Tests.Integration/DataSources/FedExAll/Grn Alcohol.xlsx
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="163">
   <si>
     <t>GUARANTEED_FUNDS</t>
   </si>
@@ -2303,10 +2303,10 @@
   </sheetPr>
   <dimension ref="A1:BT13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="BL1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="BT11" sqref="BT11"/>
+      <selection pane="bottomLeft" activeCell="BQ2" sqref="BQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2906,7 +2906,9 @@
       <c r="AS3" s="25"/>
       <c r="AT3" s="25"/>
       <c r="AU3" s="25"/>
-      <c r="AV3" s="25"/>
+      <c r="AV3" s="32">
+        <v>9012633035</v>
+      </c>
       <c r="AW3" s="25"/>
       <c r="AX3" s="25"/>
       <c r="AY3" s="25"/>
@@ -2949,7 +2951,9 @@
       <c r="BP3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="BQ3" s="25"/>
+      <c r="BQ3" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="BR3" s="22" t="s">
         <v>108</v>
       </c>
@@ -3153,7 +3157,9 @@
       <c r="BP4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BQ4" s="32"/>
+      <c r="BQ4" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="BR4" s="29" t="s">
         <v>108</v>
       </c>
@@ -3353,7 +3359,9 @@
       <c r="BP5" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="BQ5" s="32"/>
+      <c r="BQ5" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="BR5" s="29" t="s">
         <v>108</v>
       </c>
@@ -3484,7 +3492,9 @@
       <c r="AS6" s="32"/>
       <c r="AT6" s="32"/>
       <c r="AU6" s="32"/>
-      <c r="AV6" s="32"/>
+      <c r="AV6" s="32">
+        <v>9012633035</v>
+      </c>
       <c r="AW6" s="32"/>
       <c r="AX6" s="32"/>
       <c r="AY6" s="32"/>
@@ -3527,7 +3537,9 @@
         <v>53</v>
       </c>
       <c r="BP6" s="29"/>
-      <c r="BQ6" s="29"/>
+      <c r="BQ6" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="BR6" s="29" t="s">
         <v>108</v>
       </c>
@@ -3658,7 +3670,9 @@
       <c r="AS7" s="32"/>
       <c r="AT7" s="32"/>
       <c r="AU7" s="32"/>
-      <c r="AV7" s="32"/>
+      <c r="AV7" s="32">
+        <v>9012633035</v>
+      </c>
       <c r="AW7" s="32"/>
       <c r="AX7" s="32"/>
       <c r="AY7" s="32"/>
@@ -3836,7 +3850,9 @@
       <c r="AS8" s="32"/>
       <c r="AT8" s="32"/>
       <c r="AU8" s="32"/>
-      <c r="AV8" s="32"/>
+      <c r="AV8" s="32">
+        <v>9012633035</v>
+      </c>
       <c r="AW8" s="32"/>
       <c r="AX8" s="32"/>
       <c r="AY8" s="32"/>
@@ -4014,7 +4030,9 @@
       <c r="AS9" s="43"/>
       <c r="AT9" s="43"/>
       <c r="AU9" s="43"/>
-      <c r="AV9" s="43"/>
+      <c r="AV9" s="32">
+        <v>9012633035</v>
+      </c>
       <c r="AW9" s="43"/>
       <c r="AX9" s="43"/>
       <c r="AY9" s="43"/>
